--- a/Exercise1/results.xlsx
+++ b/Exercise1/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Manhattan</t>
   </si>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>0.899</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>1688s</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>1340s</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>0.946</t>
   </si>
 </sst>
 </file>
@@ -487,7 +514,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
@@ -548,6 +581,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
@@ -565,6 +604,12 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
@@ -582,6 +627,12 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -599,6 +650,12 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -615,6 +672,12 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/Exercise1/results.xlsx
+++ b/Exercise1/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Manhattan</t>
   </si>
@@ -151,6 +151,55 @@
   </si>
   <si>
     <t>0.946</t>
+  </si>
+  <si>
+    <t>1120s</t>
+  </si>
+  <si>
+    <t>1480s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As we can see in the data, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">euclid 1-NN and 3-NN </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">works best. However it also takes the most time to compute. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you condense the training set, it is fairly quick, and still has a </t>
+  </si>
+  <si>
+    <t>relatively high accuracy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with 12G memory, the sample has to be split into three parts</t>
+    </r>
+  </si>
+  <si>
+    <t>if the set is not condensed. Else out of memory error.</t>
   </si>
 </sst>
 </file>
@@ -194,9 +243,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +587,7 @@
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -541,14 +600,8 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -564,20 +617,8 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,14 +634,8 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,14 +651,8 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -639,14 +668,8 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -662,14 +685,8 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,15 +702,186 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>